--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 2.xlsx_with_dialog_acts.xlsx
@@ -867,12 +867,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1372,12 +1372,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1408,12 +1408,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2602,12 +2602,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2818,12 +2818,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2998,12 +2998,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
